--- a/sofaplayer/Ligue_1/RC Lens_stats.xlsx
+++ b/sofaplayer/Ligue_1/RC Lens_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL23"/>
+  <dimension ref="A1:DL25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,16 +1035,16 @@
         <v>347010</v>
       </c>
       <c r="E2" t="n">
-        <v>7.6</v>
+        <v>7.25</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0493</v>
+        <v>0.0939</v>
       </c>
       <c r="L2" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>100</v>
+        <v>33.333333333333</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1098,40 +1098,40 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.009151370000000001</v>
+        <v>0.24271137</v>
       </c>
       <c r="AB2" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>100</v>
+        <v>84.615384615385</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AJ2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK2" t="n">
         <v>3</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
       </c>
       <c r="AL2" t="n">
         <v>100</v>
@@ -1149,10 +1149,10 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1173,95 +1173,95 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="BA2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>26.666666666667</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>26.666666666667</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>17</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS2" t="n">
         <v>3</v>
       </c>
-      <c r="BB2" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="BC2" t="n">
+      <c r="BT2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
         <v>3</v>
       </c>
-      <c r="BD2" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
       <c r="CC2" t="n">
         <v>1</v>
       </c>
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CS2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CT2" t="n">
         <v>1</v>
       </c>
       <c r="CU2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DA2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DG2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,52 +1391,52 @@
         <v>148824</v>
       </c>
       <c r="E3" t="n">
-        <v>7.052380952381</v>
+        <v>7.0909090909091</v>
       </c>
       <c r="F3" t="n">
+        <v>22</v>
+      </c>
+      <c r="G3" t="n">
         <v>21</v>
       </c>
-      <c r="G3" t="n">
-        <v>20</v>
-      </c>
       <c r="H3" t="n">
-        <v>1660</v>
+        <v>1749</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>7.1746</v>
+        <v>8.2448</v>
       </c>
       <c r="L3" t="n">
-        <v>332</v>
+        <v>291.5</v>
       </c>
       <c r="M3" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
         <v>8</v>
       </c>
       <c r="P3" t="n">
-        <v>12.19512195122</v>
+        <v>13.636363636364</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>50</v>
+        <v>66.666666666667</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
@@ -1445,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -1457,67 +1457,67 @@
         <v>3</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.3704885</v>
+        <v>5.6450735</v>
       </c>
       <c r="AB3" t="n">
-        <v>1204</v>
+        <v>1276</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AE3" t="n">
-        <v>581</v>
+        <v>615</v>
       </c>
       <c r="AF3" t="n">
-        <v>78.833107191316</v>
+        <v>78.745198463508</v>
       </c>
       <c r="AG3" t="n">
-        <v>737</v>
+        <v>781</v>
       </c>
       <c r="AH3" t="n">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="AI3" t="n">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="AJ3" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL3" t="n">
-        <v>56.862745098039</v>
+        <v>56.603773584906</v>
       </c>
       <c r="AM3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AN3" t="n">
-        <v>28.070175438596</v>
+        <v>28.571428571429</v>
       </c>
       <c r="AO3" t="n">
         <v>7</v>
       </c>
       <c r="AP3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
         <v>17</v>
       </c>
       <c r="AR3" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT3" t="n">
         <v>6</v>
       </c>
       <c r="AU3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>2</v>
@@ -1529,40 +1529,40 @@
         <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AZ3" t="n">
-        <v>47.435897435897</v>
+        <v>47.560975609756</v>
       </c>
       <c r="BA3" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="BB3" t="n">
-        <v>40.66985645933</v>
+        <v>41.628959276018</v>
       </c>
       <c r="BC3" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="BD3" t="n">
-        <v>42.553191489362</v>
+        <v>42.639593908629</v>
       </c>
       <c r="BE3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>418</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>28</v>
+      </c>
+      <c r="BJ3" t="n">
         <v>5</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>23.809523809524</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>393</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>14</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>27</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>4</v>
       </c>
       <c r="BK3" t="n">
         <v>5</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO3" t="n">
         <v>15</v>
@@ -1583,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>148.1</v>
+        <v>156</v>
       </c>
       <c r="BR3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BT3" t="n">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>19</v>
       </c>
       <c r="BW3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
@@ -1610,19 +1610,19 @@
         <v>1</v>
       </c>
       <c r="BZ3" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="CA3" t="n">
         <v>12</v>
       </c>
       <c r="CB3" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CC3" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="CD3" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="CE3" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="CR3" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="CS3" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="CT3" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="CU3" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="CV3" t="n">
         <v>16</v>
@@ -1688,13 +1688,13 @@
         <v>1</v>
       </c>
       <c r="CZ3" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="DA3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DB3" t="n">
-        <v>75</v>
+        <v>76.470588235294</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="DG3" t="n">
-        <v>532</v>
+        <v>557</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>795228</v>
       </c>
       <c r="E4" t="n">
-        <v>7.0588235294118</v>
+        <v>7.0111111111111</v>
       </c>
       <c r="F4" t="n">
+        <v>18</v>
+      </c>
+      <c r="G4" t="n">
         <v>17</v>
       </c>
-      <c r="G4" t="n">
-        <v>16</v>
-      </c>
       <c r="H4" t="n">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
@@ -1765,22 +1765,22 @@
         <v>8</v>
       </c>
       <c r="K4" t="n">
-        <v>5.4358</v>
+        <v>6.4095</v>
       </c>
       <c r="L4" t="n">
-        <v>133.375</v>
+        <v>142</v>
       </c>
       <c r="M4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N4" t="n">
         <v>16</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P4" t="n">
-        <v>29.62962962963</v>
+        <v>27.586206896552</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -1810,43 +1810,43 @@
         <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.15038722</v>
+        <v>1.26353722</v>
       </c>
       <c r="AB4" t="n">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="AC4" t="n">
         <v>3</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="AF4" t="n">
-        <v>79.518072289157</v>
+        <v>79.78142076502699</v>
       </c>
       <c r="AG4" t="n">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="AH4" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="AK4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL4" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>5</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT4" t="n">
         <v>19</v>
@@ -1888,37 +1888,37 @@
         <v>11</v>
       </c>
       <c r="AZ4" t="n">
-        <v>52.380952380952</v>
+        <v>47.826086956522</v>
       </c>
       <c r="BA4" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BB4" t="n">
-        <v>40</v>
+        <v>39.69465648855</v>
       </c>
       <c r="BC4" t="n">
         <v>32</v>
       </c>
       <c r="BD4" t="n">
-        <v>34.782608695652</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BE4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BF4" t="n">
-        <v>54.545454545455</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BG4" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="BH4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BI4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BJ4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BK4" t="n">
         <v>1</v>
@@ -1939,22 +1939,22 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>120</v>
+        <v>126.2</v>
       </c>
       <c r="BR4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BT4" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BW4" t="n">
         <v>1</v>
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="BZ4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CA4" t="n">
         <v>6</v>
@@ -2020,16 +2020,16 @@
         <v>0</v>
       </c>
       <c r="CR4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CS4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CT4" t="n">
         <v>1</v>
       </c>
       <c r="CU4" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="CV4" t="n">
         <v>15</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DA4" t="n">
         <v>5</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="DG4" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2106,13 +2106,13 @@
         <v>6.63</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>0.2849</v>
       </c>
       <c r="L5" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M5" t="n">
         <v>6</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.11651365</v>
+        <v>0.11672753</v>
       </c>
       <c r="AB5" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -2181,19 +2181,19 @@
         <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF5" t="n">
-        <v>75</v>
+        <v>75.36231884058</v>
       </c>
       <c r="AG5" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH5" t="n">
         <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AJ5" t="n">
         <v>16</v>
@@ -2223,7 +2223,7 @@
         <v>9</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT5" t="n">
         <v>6</v>
@@ -2250,13 +2250,13 @@
         <v>16</v>
       </c>
       <c r="BB5" t="n">
-        <v>50</v>
+        <v>48.484848484848</v>
       </c>
       <c r="BC5" t="n">
         <v>8</v>
       </c>
       <c r="BD5" t="n">
-        <v>38.095238095238</v>
+        <v>36.363636363636</v>
       </c>
       <c r="BE5" t="n">
         <v>8</v>
@@ -2385,7 +2385,7 @@
         <v>5</v>
       </c>
       <c r="CU5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CV5" t="n">
         <v>3</v>
@@ -2421,7 +2421,7 @@
         <v>23</v>
       </c>
       <c r="DG5" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2452,318 +2452,318 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Florian Sotoca</t>
+          <t>Wesley Saïd</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>788921</v>
+        <v>227862</v>
       </c>
       <c r="E6" t="n">
-        <v>6.4583333333333</v>
+        <v>7.1909090909091</v>
       </c>
       <c r="F6" t="n">
+        <v>22</v>
+      </c>
+      <c r="G6" t="n">
+        <v>19</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1546</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.5921</v>
+      </c>
+      <c r="L6" t="n">
+        <v>154.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>41</v>
+      </c>
+      <c r="N6" t="n">
+        <v>20</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8</v>
+      </c>
+      <c r="P6" t="n">
+        <v>24.390243902439</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>100</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>10</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>3.17879387</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>767</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>437</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>82.452830188679</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>530</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>184</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>253</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>133</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>63.888888888889</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>27.777777777778</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP6" t="n">
         <v>16</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>145</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.0747</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.40542165</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>107</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>56</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>78.87323943662</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>71</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AQ6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT6" t="n">
         <v>15</v>
       </c>
-      <c r="AI6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL6" t="n">
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>63.636363636364</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>63</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>42.857142857143</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>49</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>166</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>30</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>12</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>158.2</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>22</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>12</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>93</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>13</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>35</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>6</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>17</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>46</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>26</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>20</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>33</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>18</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>84</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>21</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>36</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>12</v>
+      </c>
+      <c r="DB6" t="n">
         <v>75</v>
       </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>32.142857142857</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>30</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>28</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>12</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>3</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>5</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>3</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>4</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>19</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>7</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ6" t="n">
-        <v>4</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB6" t="n">
-        <v>0</v>
-      </c>
       <c r="DC6" t="n">
         <v>0</v>
       </c>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="DG6" t="n">
-        <v>52</v>
+        <v>323</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="DJ6" t="n">
-        <v>2137909</v>
+        <v>2137949</v>
       </c>
       <c r="DK6" t="inlineStr">
         <is>
@@ -2808,300 +2808,300 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Wesley Saïd</t>
+          <t>Florian Sotoca</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>227862</v>
+        <v>788921</v>
       </c>
       <c r="E7" t="n">
-        <v>7.1</v>
+        <v>6.4583333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1478</v>
+        <v>145</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0747</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.40542165</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>107</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>56</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>78.87323943662</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>71</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK7" t="n">
         <v>3</v>
       </c>
-      <c r="J7" t="n">
-        <v>8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.6799</v>
-      </c>
-      <c r="L7" t="n">
-        <v>184.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>36</v>
-      </c>
-      <c r="N7" t="n">
-        <v>18</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="AL7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>32.142857142857</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>30</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>28</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>12</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>15</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>5</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>19</v>
+      </c>
+      <c r="CV7" t="n">
         <v>7</v>
       </c>
-      <c r="P7" t="n">
-        <v>22.222222222222</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>100</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>8</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2</v>
-      </c>
-      <c r="X7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>3.16201567</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>728</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>414</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>81.980198019802</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>505</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>169</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>245</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>128</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>62.857142857143</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>27.777777777778</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>47</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>59</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>41.549295774648</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>45</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>42.056074766355</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>14</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>40</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>161</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>28</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>11</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>12</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>21</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>10</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>91</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>12</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>30</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>6</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>17</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>45</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>25</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>10</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR7" t="n">
-        <v>18</v>
-      </c>
-      <c r="CS7" t="n">
-        <v>30</v>
-      </c>
-      <c r="CT7" t="n">
-        <v>18</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>83</v>
-      </c>
-      <c r="CV7" t="n">
-        <v>21</v>
-      </c>
       <c r="CW7" t="n">
         <v>0</v>
       </c>
@@ -3112,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="DA7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="DB7" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="DG7" t="n">
-        <v>315</v>
+        <v>52</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="DJ7" t="n">
-        <v>2137949</v>
+        <v>2137909</v>
       </c>
       <c r="DK7" t="inlineStr">
         <is>
@@ -3171,40 +3171,40 @@
         <v>1545376</v>
       </c>
       <c r="E8" t="n">
-        <v>6.7294117647059</v>
+        <v>6.8277777777778</v>
       </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
         <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6413</v>
+        <v>4.4269</v>
       </c>
       <c r="L8" t="n">
-        <v>202</v>
+        <v>125.4</v>
       </c>
       <c r="M8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>7</v>
       </c>
       <c r="P8" t="n">
-        <v>13.04347826087</v>
+        <v>20</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -3216,20 +3216,20 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
+        <v>5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2</v>
+      </c>
+      <c r="X8" t="n">
         <v>3</v>
       </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" t="n">
-        <v>2</v>
-      </c>
       <c r="Y8" t="n">
         <v>0</v>
       </c>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.09872855</v>
+        <v>0.10049992</v>
       </c>
       <c r="AB8" t="n">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
@@ -3249,22 +3249,22 @@
         <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AF8" t="n">
-        <v>75.229357798165</v>
+        <v>75.22123893805301</v>
       </c>
       <c r="AG8" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AH8" t="n">
         <v>38</v>
       </c>
       <c r="AI8" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>2</v>
@@ -3282,7 +3282,7 @@
         <v>2</v>
       </c>
       <c r="AP8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
@@ -3300,7 +3300,7 @@
         <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW8" t="n">
         <v>0</v>
@@ -3309,31 +3309,31 @@
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ8" t="n">
-        <v>40</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BA8" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BB8" t="n">
-        <v>49.54954954955</v>
+        <v>48.717948717949</v>
       </c>
       <c r="BC8" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BD8" t="n">
-        <v>53.012048192771</v>
+        <v>54.117647058824</v>
       </c>
       <c r="BE8" t="n">
         <v>11</v>
       </c>
       <c r="BF8" t="n">
-        <v>39.285714285714</v>
+        <v>34.375</v>
       </c>
       <c r="BG8" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="BH8" t="n">
         <v>10</v>
@@ -3363,16 +3363,16 @@
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>114.4</v>
+        <v>122.9</v>
       </c>
       <c r="BR8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BT8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="BZ8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CA8" t="n">
         <v>7</v>
@@ -3399,10 +3399,10 @@
         <v>13</v>
       </c>
       <c r="CC8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CD8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3447,16 +3447,16 @@
         <v>4</v>
       </c>
       <c r="CS8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CT8" t="n">
         <v>4</v>
       </c>
       <c r="CU8" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="CV8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="CW8" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>5</v>
       </c>
       <c r="DB8" t="n">
-        <v>55.555555555556</v>
+        <v>50</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="DG8" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3881,16 +3881,16 @@
         <v>1064697</v>
       </c>
       <c r="E10" t="n">
-        <v>7.0526315789474</v>
+        <v>7.05</v>
       </c>
       <c r="F10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" t="n">
-        <v>1531</v>
+        <v>1579</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>2.2202</v>
       </c>
       <c r="L10" t="n">
-        <v>1531</v>
+        <v>1579</v>
       </c>
       <c r="M10" t="n">
         <v>26</v>
@@ -3947,10 +3947,10 @@
         <v>2</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.2389974</v>
+        <v>1.24206289</v>
       </c>
       <c r="AB10" t="n">
-        <v>1243</v>
+        <v>1282</v>
       </c>
       <c r="AC10" t="n">
         <v>2</v>
@@ -3959,28 +3959,28 @@
         <v>18</v>
       </c>
       <c r="AE10" t="n">
-        <v>784</v>
+        <v>809</v>
       </c>
       <c r="AF10" t="n">
-        <v>86.343612334802</v>
+        <v>86.431623931624</v>
       </c>
       <c r="AG10" t="n">
-        <v>908</v>
+        <v>936</v>
       </c>
       <c r="AH10" t="n">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="AI10" t="n">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="AJ10" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK10" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AL10" t="n">
-        <v>68.493150684932</v>
+        <v>68.421052631579</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
@@ -3989,22 +3989,22 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP10" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AQ10" t="n">
         <v>18</v>
       </c>
       <c r="AR10" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AS10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT10" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AU10" t="n">
         <v>9</v>
@@ -4025,31 +4025,31 @@
         <v>57.894736842105</v>
       </c>
       <c r="BA10" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BB10" t="n">
-        <v>55.9670781893</v>
+        <v>56.451612903226</v>
       </c>
       <c r="BC10" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BD10" t="n">
-        <v>55.882352941176</v>
+        <v>56.25</v>
       </c>
       <c r="BE10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BF10" t="n">
-        <v>56.410256410256</v>
+        <v>57.5</v>
       </c>
       <c r="BG10" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="BH10" t="n">
         <v>27</v>
       </c>
       <c r="BI10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BJ10" t="n">
         <v>3</v>
@@ -4073,16 +4073,16 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="BR10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS10" t="n">
         <v>3</v>
       </c>
       <c r="BT10" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>20</v>
       </c>
       <c r="CC10" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CD10" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4163,7 +4163,7 @@
         <v>2</v>
       </c>
       <c r="CU10" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="CV10" t="n">
         <v>17</v>
@@ -4178,13 +4178,13 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="DA10" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="DB10" t="n">
-        <v>60</v>
+        <v>61.194029850746</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4196,10 +4196,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="DG10" t="n">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4237,16 +4237,16 @@
         <v>1423504</v>
       </c>
       <c r="E11" t="n">
-        <v>6.7625</v>
+        <v>6.7555555555556</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4303,10 +4303,10 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.53288523</v>
+        <v>0.53434015</v>
       </c>
       <c r="AB11" t="n">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="AC11" t="n">
         <v>2</v>
@@ -4315,49 +4315,49 @@
         <v>4</v>
       </c>
       <c r="AE11" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="AF11" t="n">
-        <v>82.051282051282</v>
+        <v>81.60919540229899</v>
       </c>
       <c r="AG11" t="n">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="AH11" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AJ11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL11" t="n">
-        <v>63.636363636364</v>
+        <v>69.230769230769</v>
       </c>
       <c r="AM11" t="n">
         <v>4</v>
       </c>
       <c r="AN11" t="n">
-        <v>26.666666666667</v>
+        <v>21.052631578947</v>
       </c>
       <c r="AO11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT11" t="n">
         <v>4</v>
@@ -4381,16 +4381,16 @@
         <v>15.384615384615</v>
       </c>
       <c r="BA11" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BB11" t="n">
-        <v>52.054794520548</v>
+        <v>53.246753246753</v>
       </c>
       <c r="BC11" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="BD11" t="n">
-        <v>52.941176470588</v>
+        <v>54.166666666667</v>
       </c>
       <c r="BE11" t="n">
         <v>2</v>
@@ -4399,13 +4399,13 @@
         <v>40</v>
       </c>
       <c r="BG11" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BH11" t="n">
         <v>13</v>
       </c>
       <c r="BI11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BJ11" t="n">
         <v>0</v>
@@ -4429,16 +4429,16 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>54.1</v>
+        <v>60.8</v>
       </c>
       <c r="BR11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS11" t="n">
         <v>1</v>
       </c>
       <c r="BT11" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4465,10 +4465,10 @@
         <v>1</v>
       </c>
       <c r="CC11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CD11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE11" t="n">
         <v>0</v>
@@ -4516,10 +4516,10 @@
         <v>13</v>
       </c>
       <c r="CT11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="CU11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CV11" t="n">
         <v>3</v>
@@ -4534,13 +4534,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="DA11" t="n">
         <v>11</v>
       </c>
       <c r="DB11" t="n">
-        <v>52.380952380952</v>
+        <v>50</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4552,10 +4552,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="DG11" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4593,16 +4593,16 @@
         <v>231946</v>
       </c>
       <c r="E12" t="n">
-        <v>6.87</v>
+        <v>6.8857142857143</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" t="n">
-        <v>1742</v>
+        <v>1832</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -4614,7 +4614,7 @@
         <v>4.6364</v>
       </c>
       <c r="L12" t="n">
-        <v>871</v>
+        <v>916</v>
       </c>
       <c r="M12" t="n">
         <v>28</v>
@@ -4659,64 +4659,64 @@
         <v>5</v>
       </c>
       <c r="AA12" t="n">
-        <v>3.85217748</v>
+        <v>3.94554218</v>
       </c>
       <c r="AB12" t="n">
-        <v>1291</v>
+        <v>1364</v>
       </c>
       <c r="AC12" t="n">
         <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AE12" t="n">
-        <v>738</v>
+        <v>779</v>
       </c>
       <c r="AF12" t="n">
-        <v>82.921348314607</v>
+        <v>83.404710920771</v>
       </c>
       <c r="AG12" t="n">
-        <v>890</v>
+        <v>934</v>
       </c>
       <c r="AH12" t="n">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="AI12" t="n">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="AJ12" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AK12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL12" t="n">
-        <v>50.909090909091</v>
+        <v>51.785714285714</v>
       </c>
       <c r="AM12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>31.081081081081</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>142</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT12" t="n">
         <v>22</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>30.985915492958</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>129</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>21</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -4731,22 +4731,22 @@
         <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ12" t="n">
-        <v>32</v>
+        <v>34.48275862069</v>
       </c>
       <c r="BA12" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="BB12" t="n">
-        <v>42.148760330579</v>
+        <v>43.076923076923</v>
       </c>
       <c r="BC12" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="BD12" t="n">
-        <v>42.723004694836</v>
+        <v>43.722943722944</v>
       </c>
       <c r="BE12" t="n">
         <v>11</v>
@@ -4755,13 +4755,13 @@
         <v>37.931034482759</v>
       </c>
       <c r="BG12" t="n">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="BH12" t="n">
         <v>44</v>
       </c>
       <c r="BI12" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="BJ12" t="n">
         <v>2</v>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="BN12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO12" t="n">
         <v>15</v>
@@ -4785,16 +4785,16 @@
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>137.4</v>
+        <v>144.6</v>
       </c>
       <c r="BR12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS12" t="n">
         <v>7</v>
       </c>
       <c r="BT12" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4818,13 +4818,13 @@
         <v>7</v>
       </c>
       <c r="CB12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="CC12" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="CD12" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4866,16 +4866,16 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="CS12" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="CT12" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="CU12" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CV12" t="n">
         <v>18</v>
@@ -4890,13 +4890,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="DA12" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="DB12" t="n">
-        <v>50.909090909091</v>
+        <v>51.666666666667</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4908,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="DG12" t="n">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -6008,23 +6008,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Saud Abdulhamid</t>
+          <t>Arthur Masuaku</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>966849</v>
+        <v>174975</v>
       </c>
       <c r="E16" t="n">
-        <v>6.7214285714286</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6032,17 +6032,15 @@
       <c r="J16" t="n">
         <v>0</v>
       </c>
-      <c r="K16" t="n">
-        <v>0.1929</v>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -6078,70 +6076,68 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1.03628646</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="n">
-        <v>349</v>
+        <v>2</v>
       </c>
       <c r="AC16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>90.540540540541</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>18.181818181818</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>11.764705882353</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV16" t="n">
         <v>0</v>
@@ -6150,40 +6146,40 @@
         <v>0</v>
       </c>
       <c r="AX16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AZ16" t="n">
-        <v>23.076923076923</v>
+        <v>0</v>
       </c>
       <c r="BA16" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="BB16" t="n">
-        <v>42.372881355932</v>
+        <v>100</v>
       </c>
       <c r="BC16" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="BD16" t="n">
-        <v>45.098039215686</v>
+        <v>100</v>
       </c>
       <c r="BE16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BG16" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="BH16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BI16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BJ16" t="n">
         <v>0</v>
@@ -6198,31 +6194,31 @@
         <v>0</v>
       </c>
       <c r="BN16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>94.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="BR16" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BS16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT16" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW16" t="n">
         <v>0</v>
@@ -6234,19 +6230,19 @@
         <v>0</v>
       </c>
       <c r="BZ16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA16" t="n">
         <v>0</v>
       </c>
       <c r="CB16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CC16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CD16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6264,10 +6260,10 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CK16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL16" t="n">
         <v>0</v>
@@ -6288,19 +6284,19 @@
         <v>0</v>
       </c>
       <c r="CR16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CS16" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="CT16" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="CU16" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="CV16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
@@ -6312,13 +6308,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA16" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="DB16" t="n">
-        <v>64.28571428571399</v>
+        <v>100</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6330,19 +6326,19 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="DG16" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
       </c>
       <c r="DI16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ16" t="n">
-        <v>2137911</v>
+        <v>2675691</v>
       </c>
       <c r="DK16" t="inlineStr">
         <is>
@@ -6364,320 +6360,320 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ismaelo Ganiou</t>
+          <t>Saud Abdulhamid</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1408080</v>
+        <v>966849</v>
       </c>
       <c r="E17" t="n">
-        <v>7.12</v>
+        <v>6.8066666666667</v>
       </c>
       <c r="F17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>583</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.1929</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1.12485426</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>413</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>239</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>90.530303030303</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>264</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>107</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>132</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>86</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>30.769230769231</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>21.052631578947</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>23.076923076923</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>42.647058823529</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>27</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>45.762711864407</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>22.222222222222</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>71</v>
+      </c>
+      <c r="BH17" t="n">
         <v>10</v>
       </c>
-      <c r="G17" t="n">
+      <c r="BI17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>15</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>25</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>6</v>
+      </c>
+      <c r="CC17" t="n">
         <v>10</v>
       </c>
-      <c r="H17" t="n">
-        <v>883</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.1485</v>
-      </c>
-      <c r="L17" t="n">
-        <v>441.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>8</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.17803996</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>675</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>448</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>85.171102661597</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>526</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>265</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>183</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>42.105263157895</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO17" t="n">
+      <c r="CD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>13</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>19</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>39</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>7</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="DA17" t="n">
         <v>11</v>
       </c>
-      <c r="AP17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>52</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>59.770114942529</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>32</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>61.538461538462</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>20</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>57.142857142857</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>101</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>14</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>10</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>5</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>7</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>10</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>78</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>4</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>6</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>29</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>16</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>6</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR17" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS17" t="n">
-        <v>6</v>
-      </c>
-      <c r="CT17" t="n">
-        <v>5</v>
-      </c>
-      <c r="CU17" t="n">
-        <v>35</v>
-      </c>
-      <c r="CV17" t="n">
-        <v>15</v>
-      </c>
-      <c r="CW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ17" t="n">
-        <v>57</v>
-      </c>
-      <c r="DA17" t="n">
-        <v>15</v>
-      </c>
       <c r="DB17" t="n">
-        <v>83.333333333333</v>
+        <v>64.705882352941</v>
       </c>
       <c r="DC17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD17" t="n">
         <v>0</v>
@@ -6686,19 +6682,19 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>292</v>
+        <v>114</v>
       </c>
       <c r="DG17" t="n">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="DH17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DJ17" t="n">
-        <v>2341417</v>
+        <v>2137911</v>
       </c>
       <c r="DK17" t="inlineStr">
         <is>
@@ -6720,341 +6716,341 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Malang Sarr</t>
+          <t>Ismaelo Ganiou</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>826203</v>
+        <v>1408080</v>
       </c>
       <c r="E18" t="n">
-        <v>7.245</v>
+        <v>7.1090909090909</v>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>1800</v>
+        <v>973</v>
       </c>
       <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.1485</v>
+      </c>
+      <c r="L18" t="n">
+        <v>486.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>8</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.17954534</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>713</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>473</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>84.91921005386</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>557</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>287</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>186</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>66</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>41.269841269841</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY18" t="n">
         <v>4</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.8561</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="AZ18" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>60.43956043956</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>33</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>62.264150943396</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>22</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>57.894736842105</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>107</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI18" t="n">
         <v>11</v>
       </c>
-      <c r="N18" t="n">
-        <v>3</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.3706723</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1436</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1017</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>87.975778546713</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1156</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>624</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>393</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>131</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>77</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>55.395683453237</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>48</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>43</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>89</v>
-      </c>
-      <c r="AS18" t="n">
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="BR18" t="n">
         <v>11</v>
       </c>
-      <c r="AT18" t="n">
-        <v>88</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>90</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>66.17647058823501</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>57</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>68.674698795181</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>33</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>62.264150943396</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>154</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>13</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>12</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>8</v>
-      </c>
-      <c r="BO18" t="n">
+      <c r="BS18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>84</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>32</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>17</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>6</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>6</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>5</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>36</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>16</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>63</v>
+      </c>
+      <c r="DA18" t="n">
         <v>15</v>
       </c>
-      <c r="BP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>144.9</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>20</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>139</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV18" t="n">
+      <c r="DB18" t="n">
+        <v>83.333333333333</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>317</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>240</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>2</v>
+      </c>
+      <c r="DI18" t="n">
         <v>5</v>
       </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>7</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>4</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>93</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>51</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>11</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>4</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS18" t="n">
-        <v>5</v>
-      </c>
-      <c r="CT18" t="n">
-        <v>4</v>
-      </c>
-      <c r="CU18" t="n">
-        <v>46</v>
-      </c>
-      <c r="CV18" t="n">
-        <v>20</v>
-      </c>
-      <c r="CW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ18" t="n">
-        <v>139</v>
-      </c>
-      <c r="DA18" t="n">
-        <v>27</v>
-      </c>
-      <c r="DB18" t="n">
-        <v>62.790697674419</v>
-      </c>
-      <c r="DC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF18" t="n">
-        <v>670</v>
-      </c>
-      <c r="DG18" t="n">
-        <v>486</v>
-      </c>
-      <c r="DH18" t="n">
-        <v>17</v>
-      </c>
-      <c r="DI18" t="n">
-        <v>14</v>
-      </c>
       <c r="DJ18" t="n">
-        <v>2137959</v>
+        <v>2341417</v>
       </c>
       <c r="DK18" t="inlineStr">
         <is>
@@ -7076,47 +7072,47 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Samson Baidoo</t>
+          <t>Malang Sarr</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1099117</v>
+        <v>826203</v>
       </c>
       <c r="E19" t="n">
-        <v>7.2333333333333</v>
+        <v>7.2285714285714</v>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H19" t="n">
-        <v>1545</v>
+        <v>1890</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.6224</v>
+        <v>0.9081</v>
       </c>
       <c r="L19" t="n">
-        <v>772.5</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -7128,13 +7124,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -7143,76 +7139,76 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z19" t="n">
         <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.38243476</v>
+        <v>0.37445331</v>
       </c>
       <c r="AB19" t="n">
-        <v>1106</v>
+        <v>1499</v>
       </c>
       <c r="AC19" t="n">
         <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>824</v>
+        <v>1061</v>
       </c>
       <c r="AF19" t="n">
-        <v>92.688413948256</v>
+        <v>87.758478081059</v>
       </c>
       <c r="AG19" t="n">
-        <v>889</v>
+        <v>1209</v>
       </c>
       <c r="AH19" t="n">
-        <v>571</v>
+        <v>661</v>
       </c>
       <c r="AI19" t="n">
-        <v>253</v>
+        <v>400</v>
       </c>
       <c r="AJ19" t="n">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="AK19" t="n">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>53.741496598639</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN19" t="n">
         <v>50</v>
       </c>
-      <c r="AL19" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
       <c r="AO19" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AP19" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AQ19" t="n">
         <v>3</v>
       </c>
       <c r="AR19" t="n">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="AS19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT19" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="AU19" t="n">
         <v>3</v>
       </c>
       <c r="AV19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW19" t="n">
         <v>0</v>
@@ -7221,154 +7217,154 @@
         <v>0</v>
       </c>
       <c r="AY19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AZ19" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="BA19" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="BB19" t="n">
-        <v>53.731343283582</v>
+        <v>65.71428571428601</v>
       </c>
       <c r="BC19" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="BD19" t="n">
-        <v>61.904761904762</v>
+        <v>67.44186046511599</v>
       </c>
       <c r="BE19" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BF19" t="n">
-        <v>46.478873239437</v>
+        <v>62.962962962963</v>
       </c>
       <c r="BG19" t="n">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="BH19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BI19" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>15</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>21</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>148</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>98</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>51</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>11</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS19" t="n">
         <v>5</v>
       </c>
-      <c r="BJ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>7</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>12</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>18</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>3</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>65</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>9</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>14</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>19</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>9</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>9</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>3</v>
-      </c>
-      <c r="CS19" t="n">
-        <v>7</v>
-      </c>
       <c r="CT19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CU19" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="CV19" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="CW19" t="n">
         <v>0</v>
@@ -7380,13 +7376,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="DA19" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="DB19" t="n">
-        <v>62.962962962963</v>
+        <v>63.636363636364</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7398,19 +7394,19 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>601</v>
+        <v>709</v>
       </c>
       <c r="DG19" t="n">
-        <v>288</v>
+        <v>500</v>
       </c>
       <c r="DH19" t="n">
         <v>17</v>
       </c>
       <c r="DI19" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="DJ19" t="n">
-        <v>2137927</v>
+        <v>2137959</v>
       </c>
       <c r="DK19" t="inlineStr">
         <is>
@@ -7432,47 +7428,47 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Matthieu Udol</t>
+          <t>Samson Baidoo</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>787827</v>
+        <v>1099117</v>
       </c>
       <c r="E20" t="n">
-        <v>7.047619047619</v>
+        <v>7.2333333333333</v>
       </c>
       <c r="F20" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H20" t="n">
-        <v>1879</v>
+        <v>1545</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>1.9907</v>
+        <v>1.6224</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>772.5</v>
       </c>
       <c r="M20" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
         <v>3</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -7484,13 +7480,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -7502,271 +7498,271 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA20" t="n">
-        <v>5.13745434</v>
+        <v>0.38243476</v>
       </c>
       <c r="AB20" t="n">
-        <v>1280</v>
+        <v>1106</v>
       </c>
       <c r="AC20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>824</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>92.688413948256</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>889</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>571</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>253</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>59</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>86</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>72</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>53.731343283582</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>39</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>61.904761904762</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>33</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>46.478873239437</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>74</v>
+      </c>
+      <c r="BH20" t="n">
         <v>16</v>
       </c>
-      <c r="AD20" t="n">
-        <v>33</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>676</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>83.25123152709401</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>812</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>363</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>313</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>152</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>31</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>37.80487804878</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>43.75</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>92</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>42</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>34.48275862069</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>82</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>47.674418604651</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>63</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>48.091603053435</v>
-      </c>
-      <c r="BE20" t="n">
+      <c r="BI20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>7</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>12</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>18</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>65</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>14</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC20" t="n">
         <v>19</v>
       </c>
-      <c r="BF20" t="n">
-        <v>46.341463414634</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>251</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>20</v>
-      </c>
-      <c r="BI20" t="n">
+      <c r="CD20" t="n">
+        <v>9</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>9</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>7</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>62</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>38</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>75</v>
+      </c>
+      <c r="DA20" t="n">
+        <v>17</v>
+      </c>
+      <c r="DB20" t="n">
+        <v>62.962962962963</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>601</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>288</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>17</v>
+      </c>
+      <c r="DI20" t="n">
         <v>21</v>
       </c>
-      <c r="BJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>8</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>17</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>148</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>21</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>6</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>136</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>7</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>17</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>14</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>64</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>28</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>13</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>4</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>33</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>29</v>
-      </c>
-      <c r="CT20" t="n">
-        <v>64</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>90</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>22</v>
-      </c>
-      <c r="CW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ20" t="n">
-        <v>82</v>
-      </c>
-      <c r="DA20" t="n">
-        <v>14</v>
-      </c>
-      <c r="DB20" t="n">
-        <v>43.75</v>
-      </c>
-      <c r="DC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF20" t="n">
-        <v>404</v>
-      </c>
-      <c r="DG20" t="n">
-        <v>408</v>
-      </c>
-      <c r="DH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI20" t="n">
-        <v>8</v>
-      </c>
       <c r="DJ20" t="n">
-        <v>2137943</v>
+        <v>2137927</v>
       </c>
       <c r="DK20" t="inlineStr">
         <is>
@@ -7788,23 +7784,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Jonathan Gradit</t>
+          <t>Nidal Čelik</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>369650</v>
+        <v>1399503</v>
       </c>
       <c r="E21" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>809</v>
+        <v>90</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7812,14 +7808,12 @@
       <c r="J21" t="n">
         <v>0</v>
       </c>
-      <c r="K21" t="n">
-        <v>0.1068</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -7861,148 +7855,148 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.20010182</v>
+        <v>0.00437458</v>
       </c>
       <c r="AB21" t="n">
-        <v>604</v>
+        <v>65</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>433</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="n">
-        <v>91.54334038055001</v>
+        <v>95</v>
       </c>
       <c r="AG21" t="n">
-        <v>473</v>
+        <v>40</v>
       </c>
       <c r="AH21" t="n">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="AI21" t="n">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="AJ21" t="n">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="AK21" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AL21" t="n">
-        <v>42.424242424242</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>33.333333333333</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="AS21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="AU21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ21" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BA21" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="BB21" t="n">
-        <v>56.578947368421</v>
+        <v>71.428571428571</v>
       </c>
       <c r="BC21" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="BD21" t="n">
-        <v>59.183673469388</v>
+        <v>71.428571428571</v>
       </c>
       <c r="BE21" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BF21" t="n">
-        <v>51.851851851852</v>
+        <v>0</v>
       </c>
       <c r="BG21" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="BH21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BI21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BJ21" t="n">
         <v>0</v>
       </c>
       <c r="BK21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM21" t="n">
         <v>0</v>
       </c>
       <c r="BN21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>67</v>
+        <v>7.5</v>
       </c>
       <c r="BR21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BS21" t="n">
         <v>0</v>
       </c>
       <c r="BT21" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="BU21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW21" t="n">
         <v>0</v>
@@ -8014,115 +8008,115 @@
         <v>0</v>
       </c>
       <c r="BZ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB21" t="n">
         <v>1</v>
       </c>
       <c r="CC21" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="CD21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>5</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>25</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>28</v>
+      </c>
+      <c r="DG21" t="n">
         <v>12</v>
       </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>5</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR21" t="n">
-        <v>2</v>
-      </c>
-      <c r="CS21" t="n">
-        <v>5</v>
-      </c>
-      <c r="CT21" t="n">
-        <v>3</v>
-      </c>
-      <c r="CU21" t="n">
-        <v>33</v>
-      </c>
-      <c r="CV21" t="n">
-        <v>13</v>
-      </c>
-      <c r="CW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ21" t="n">
-        <v>33</v>
-      </c>
-      <c r="DA21" t="n">
-        <v>12</v>
-      </c>
-      <c r="DB21" t="n">
-        <v>70.58823529411799</v>
-      </c>
-      <c r="DC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF21" t="n">
-        <v>260</v>
-      </c>
-      <c r="DG21" t="n">
-        <v>213</v>
-      </c>
       <c r="DH21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI21" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="DJ21" t="n">
-        <v>2169489</v>
+        <v>2675689</v>
       </c>
       <c r="DK21" t="inlineStr">
         <is>
@@ -8144,23 +8138,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kyllian Antonio</t>
+          <t>Matthieu Udol</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1546405</v>
+        <v>787827</v>
       </c>
       <c r="E22" t="n">
-        <v>7.2</v>
+        <v>7.0772727272727</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H22" t="n">
-        <v>120</v>
+        <v>1968</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8169,19 +8163,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0609</v>
+        <v>2.0709</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -8214,197 +8208,197 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.02259372</v>
+        <v>5.81391734</v>
       </c>
       <c r="AB22" t="n">
-        <v>88</v>
+        <v>1335</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AE22" t="n">
-        <v>46</v>
+        <v>697</v>
       </c>
       <c r="AF22" t="n">
-        <v>86.79245283018901</v>
+        <v>83.373205741627</v>
       </c>
       <c r="AG22" t="n">
-        <v>53</v>
+        <v>836</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>375</v>
       </c>
       <c r="AI22" t="n">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="AJ22" t="n">
+        <v>157</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>33</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>38.823529411765</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>43.283582089552</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>33</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>33</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>11</v>
       </c>
-      <c r="AK22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP22" t="n">
+      <c r="AR22" t="n">
+        <v>94</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>36.666666666667</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>86</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>48.314606741573</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>66</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>49.253731343284</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>20</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>45.454545454545</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>259</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>22</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>22</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>17</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>155.7</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>22</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>139</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>8</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>19</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>14</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>68</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>31</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>13</v>
+      </c>
+      <c r="CK22" t="n">
         <v>4</v>
       </c>
-      <c r="AQ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>68.75</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>83.333333333333</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>25</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>9</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>7</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>5</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>3</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>0</v>
-      </c>
       <c r="CL22" t="n">
         <v>0</v>
       </c>
@@ -8424,19 +8418,19 @@
         <v>0</v>
       </c>
       <c r="CR22" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="CS22" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="CT22" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="CU22" t="n">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="CV22" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="CW22" t="n">
         <v>0</v>
@@ -8448,13 +8442,13 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="DA22" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="DB22" t="n">
-        <v>75</v>
+        <v>42.424242424242</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8466,19 +8460,19 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>24</v>
+        <v>416</v>
       </c>
       <c r="DG22" t="n">
-        <v>29</v>
+        <v>420</v>
       </c>
       <c r="DH22" t="n">
         <v>0</v>
       </c>
       <c r="DI22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="DJ22" t="n">
-        <v>2617044</v>
+        <v>2137943</v>
       </c>
       <c r="DK22" t="inlineStr">
         <is>
@@ -8500,347 +8494,1059 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>Jonathan Gradit</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>369650</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" t="n">
+        <v>809</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.1068</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.20010182</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>604</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>433</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>91.54334038055001</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>473</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>248</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>185</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>62</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>42.424242424242</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>43</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>56.578947368421</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>29</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>59.183673469388</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>51.851851851852</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>48</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>67</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>40</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>23</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>12</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>5</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>5</v>
+      </c>
+      <c r="CT23" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>33</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>13</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>33</v>
+      </c>
+      <c r="DA23" t="n">
+        <v>12</v>
+      </c>
+      <c r="DB23" t="n">
+        <v>70.58823529411799</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>260</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>213</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>9</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>2169489</v>
+      </c>
+      <c r="DK23" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="DL23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ligue_1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>RC Lens</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Kyllian Antonio</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1546405</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>120</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0609</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.02259372</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>88</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>86.79245283018901</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>53</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>83.333333333333</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>25</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>5</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>5</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="DA24" t="n">
+        <v>3</v>
+      </c>
+      <c r="DB24" t="n">
+        <v>75</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>24</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>29</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>2617044</v>
+      </c>
+      <c r="DK24" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="DL24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ligue_1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RC Lens</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Robin Risser</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D25" t="n">
         <v>1387161</v>
       </c>
-      <c r="E23" t="n">
-        <v>7.2333333333333</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E25" t="n">
+        <v>7.2909090909091</v>
+      </c>
+      <c r="F25" t="n">
+        <v>22</v>
+      </c>
+      <c r="G25" t="n">
+        <v>22</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1980</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.01261314</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>776</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>452</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>75.333333333333</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>403</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>49</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>115</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>44.747081712062</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>163</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>100</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>149</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>58</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>17</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>160.4</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>22</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>148</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>76</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>54</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>5</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>37</v>
+      </c>
+      <c r="CI25" t="n">
         <v>21</v>
       </c>
-      <c r="G23" t="n">
-        <v>21</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1890</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.01197295</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>726</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>427</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>75.709219858156</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>564</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>380</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>47</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>107</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>44.957983193277</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>153</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT23" t="n">
+      <c r="CJ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>7</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO25" t="n">
         <v>9</v>
       </c>
-      <c r="AU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB23" t="n">
+      <c r="CP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>257</v>
+      </c>
+      <c r="DA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>10</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>451</v>
+      </c>
+      <c r="DG25" t="n">
+        <v>149</v>
+      </c>
+      <c r="DH25" t="n">
         <v>100</v>
       </c>
-      <c r="BC23" t="n">
-        <v>3</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>100</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>100</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>137</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>52</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>8</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>17</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>151.9</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>21</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>137</v>
-      </c>
-      <c r="BU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>66</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>47</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>5</v>
-      </c>
-      <c r="CH23" t="n">
-        <v>36</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>16</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>13</v>
-      </c>
-      <c r="CK23" t="n">
-        <v>4</v>
-      </c>
-      <c r="CL23" t="n">
-        <v>2</v>
-      </c>
-      <c r="CM23" t="n">
-        <v>7</v>
-      </c>
-      <c r="CN23" t="n">
-        <v>6</v>
-      </c>
-      <c r="CO23" t="n">
-        <v>8</v>
-      </c>
-      <c r="CP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR23" t="n">
-        <v>2</v>
-      </c>
-      <c r="CS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ23" t="n">
-        <v>238</v>
-      </c>
-      <c r="DA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE23" t="n">
-        <v>9</v>
-      </c>
-      <c r="DF23" t="n">
-        <v>424</v>
-      </c>
-      <c r="DG23" t="n">
-        <v>140</v>
-      </c>
-      <c r="DH23" t="n">
-        <v>95</v>
-      </c>
-      <c r="DI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ23" t="n">
+      <c r="DI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ25" t="n">
         <v>2137947</v>
       </c>
-      <c r="DK23" t="inlineStr">
+      <c r="DK25" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL23" t="n">
-        <v>7.1496</v>
+      <c r="DL25" t="n">
+        <v>8.3185</v>
       </c>
     </row>
   </sheetData>
